--- a/tables/TableS3_emissions_scenarios.xlsx
+++ b/tables/TableS3_emissions_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586FE11-B3F3-0045-A83A-B715B4651DE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C898B8BB-4138-0248-AEF0-DB3263FB192C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13760" yWindow="6360" windowWidth="25440" windowHeight="15000" xr2:uid="{D45F6DD9-3AE0-1442-8297-5BFD33B521B3}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
